--- a/Lab2_UnitTest.xlsx
+++ b/Lab2_UnitTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -68,10 +68,18 @@
     <t>Kiểm tra đăng ký với dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>None</t>
+    <t>Không có</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>username: "user1", password: "Pass123", email: "user1@example.com</t>
     </r>
     <r>
@@ -99,6 +107,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>username: "", password: "Pass123", email: "user1@example.com</t>
     </r>
     <r>
@@ -120,6 +136,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>username: "user2", password: "123", email: "user2@example.com</t>
     </r>
     <r>
@@ -152,10 +176,15 @@
     <t>Kiểm tra email hợp lệ</t>
   </si>
   <si>
-    <t>Không có</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>email: "user@example.com</t>
     </r>
     <r>
@@ -198,6 +227,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>email: "user@.com</t>
     </r>
     <r>
@@ -240,6 +277,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>email: "user@domain.co</t>
     </r>
     <r>
@@ -1514,19 +1559,19 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="19.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="59.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="35.75" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.8761904761905" customWidth="1"/>
+    <col min="3" max="3" width="34.5047619047619" customWidth="1"/>
+    <col min="5" max="5" width="59.8857142857143" customWidth="1"/>
+    <col min="6" max="6" width="35.752380952381" customWidth="1"/>
+    <col min="7" max="7" width="18.247619047619" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="10" max="10" width="19.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="19.3809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -1692,13 +1737,13 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>1</v>
@@ -1710,27 +1755,27 @@
         <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G7" s="2" t="b">
         <v>0</v>
@@ -1742,27 +1787,27 @@
         <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="2" t="b">
         <v>0</v>
@@ -1774,27 +1819,27 @@
         <v>16</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G9" s="2" t="b">
         <v>0</v>
@@ -1806,27 +1851,27 @@
         <v>16</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G10" s="2" t="b">
         <v>1</v>
@@ -1838,27 +1883,27 @@
         <v>16</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G11" s="2" t="b">
         <v>0</v>
@@ -1870,27 +1915,27 @@
         <v>16</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="G12" s="2" t="b">
         <v>1</v>
@@ -1902,27 +1947,27 @@
         <v>16</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G13" s="2" t="b">
         <v>0</v>
@@ -1934,27 +1979,27 @@
         <v>16</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G14" s="2" t="b">
         <v>0</v>
@@ -1966,27 +2011,27 @@
         <v>16</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="2" t="b">
         <v>0</v>
@@ -1998,27 +2043,27 @@
         <v>16</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G16" s="2" t="b">
         <v>0</v>
@@ -2030,27 +2075,27 @@
         <v>16</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G17" s="2" t="b">
         <v>1</v>
@@ -2062,27 +2107,27 @@
         <v>16</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G18" s="2" t="b">
         <v>0</v>
@@ -2094,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="5:5">
